--- a/Misc/Hour Log.xlsx
+++ b/Misc/Hour Log.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Git</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Ban List, Alert Boxes, Validation, and Navigation</t>
+  </si>
+  <si>
+    <t>Redesign Post Viewing</t>
   </si>
   <si>
     <t>Total</t>
@@ -626,23 +629,40 @@
       <c r="G23" s="8"/>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="5">
-        <v>103.0</v>
-      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="6">
+        <v>42154.0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="5">
+        <v>106.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Misc/Hour Log.xlsx
+++ b/Misc/Hour Log.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>Git</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Redesign Post Viewing</t>
+  </si>
+  <si>
+    <t>Getsure Recognizers</t>
   </si>
   <si>
     <t>Total</t>
@@ -646,23 +649,40 @@
       <c r="G24" s="8"/>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="5">
-        <v>106.0</v>
-      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="6">
+        <v>42155.0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="5">
+        <v>108.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Misc/Hour Log.xlsx
+++ b/Misc/Hour Log.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>Git</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Getsure Recognizers</t>
+  </si>
+  <si>
+    <t>Outdated Post Removal and UI Tuning</t>
   </si>
   <si>
     <t>Total</t>
@@ -666,23 +669,40 @@
       <c r="G25" s="8"/>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="5">
-        <v>108.0</v>
-      </c>
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="6">
+        <v>42155.0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="5">
+        <v>111.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Misc/Hour Log.xlsx
+++ b/Misc/Hour Log.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Git</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Outdated Post Removal and UI Tuning</t>
+  </si>
+  <si>
+    <t>Tab Bar Icons</t>
   </si>
   <si>
     <t>Total</t>
@@ -686,23 +689,40 @@
       <c r="G26" s="8"/>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="5">
-        <v>111.0</v>
-      </c>
+      <c r="B27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="6">
+        <v>42156.0</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="A28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="5">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Misc/Hour Log.xlsx
+++ b/Misc/Hour Log.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>Git</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Tab Bar Icons</t>
+  </si>
+  <si>
+    <t>More Gestures</t>
   </si>
   <si>
     <t>Total</t>
@@ -706,23 +709,40 @@
       <c r="G27" s="8"/>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="5">
-        <v>112.0</v>
-      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="6">
+        <v>42160.0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="5">
+        <v>115.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Misc/Hour Log.xlsx
+++ b/Misc/Hour Log.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>Git</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>More Gestures</t>
+  </si>
+  <si>
+    <t>HTML Viewing</t>
   </si>
   <si>
     <t>Total</t>
@@ -726,23 +729,40 @@
       <c r="G28" s="8"/>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="5">
-        <v>115.0</v>
-      </c>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="6">
+        <v>42163.0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="5">
+        <v>117.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Misc/Hour Log.xlsx
+++ b/Misc/Hour Log.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>Git</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>HTML Viewing</t>
+  </si>
+  <si>
+    <t>Refactoring and Commenting</t>
   </si>
   <si>
     <t>Total</t>
@@ -746,23 +749,40 @@
       <c r="G29" s="8"/>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="5">
-        <v>117.0</v>
-      </c>
+      <c r="B30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="6">
+        <v>42178.0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="A31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="5">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Misc/Hour Log.xlsx
+++ b/Misc/Hour Log.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>Git</t>
   </si>
   <si>
-    <t>Team (Hours Spent)</t>
+    <t>Hours Spent</t>
   </si>
   <si>
     <t>Commit</t>
@@ -28,18 +28,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Eric Anderson</t>
-  </si>
-  <si>
-    <t>Justin Haight</t>
-  </si>
-  <si>
-    <t>Lindsay Insco</t>
-  </si>
-  <si>
-    <t>Robert Nimmo</t>
-  </si>
-  <si>
     <t>First Git Version</t>
   </si>
   <si>
@@ -125,6 +113,9 @@
   </si>
   <si>
     <t>Refactoring and Commenting</t>
+  </si>
+  <si>
+    <t>View Controller Comments</t>
   </si>
   <si>
     <t>Total</t>
@@ -225,6 +216,9 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -256,18 +250,10 @@
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -291,10 +277,10 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="6">
         <v>42098.0</v>
@@ -308,10 +294,10 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" s="6">
         <v>42098.0</v>
@@ -325,10 +311,10 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="6">
         <v>42098.0</v>
@@ -342,10 +328,10 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" s="6">
         <v>42099.0</v>
@@ -359,10 +345,10 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" s="6">
         <v>42100.0</v>
@@ -376,10 +362,10 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8" s="6">
         <v>42103.0</v>
@@ -393,10 +379,10 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9" s="6">
         <v>42105.0</v>
@@ -410,10 +396,10 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10" s="6">
         <v>42106.0</v>
@@ -427,10 +413,10 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11" s="6">
         <v>42108.0</v>
@@ -444,10 +430,10 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" s="6">
         <v>42108.0</v>
@@ -461,10 +447,10 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13" s="6">
         <v>42113.0</v>
@@ -478,10 +464,10 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C14" s="6">
         <v>42115.0</v>
@@ -495,10 +481,10 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C15" s="6">
         <v>42117.0</v>
@@ -512,10 +498,10 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C16" s="6">
         <v>42117.0</v>
@@ -529,10 +515,10 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C17" s="6">
         <v>42120.0</v>
@@ -546,10 +532,10 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C18" s="6">
         <v>42120.0</v>
@@ -563,10 +549,10 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C19" s="6">
         <v>42124.0</v>
@@ -580,10 +566,10 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C20" s="6">
         <v>42126.0</v>
@@ -597,10 +583,10 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C21" s="6">
         <v>42129.0</v>
@@ -614,10 +600,10 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C22" s="6">
         <v>42148.0</v>
@@ -631,10 +617,10 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C23" s="6">
         <v>42153.0</v>
@@ -648,10 +634,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C24" s="6">
         <v>42154.0</v>
@@ -665,10 +651,10 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C25" s="6">
         <v>42155.0</v>
@@ -682,10 +668,10 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C26" s="6">
         <v>42155.0</v>
@@ -699,10 +685,10 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C27" s="6">
         <v>42156.0</v>
@@ -716,10 +702,10 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C28" s="6">
         <v>42160.0</v>
@@ -733,10 +719,10 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C29" s="6">
         <v>42163.0</v>
@@ -750,10 +736,10 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C30" s="6">
         <v>42178.0</v>
@@ -766,23 +752,39 @@
       <c r="G30" s="8"/>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="5">
-        <v>120.0</v>
-      </c>
+      <c r="A31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="6">
+        <v>42183.0</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="A32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="5">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:G1"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Misc/Hour Log.xlsx
+++ b/Misc/Hour Log.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>Git</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>View Controller Comments</t>
+  </si>
+  <si>
+    <t>Finish Comments</t>
   </si>
   <si>
     <t>Total</t>
@@ -769,22 +772,39 @@
       <c r="G31" s="8"/>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="5">
-        <v>123.0</v>
-      </c>
+      <c r="B32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="6">
+        <v>42184.0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="A33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="5">
+        <v>125.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
